--- a/data/trans_dic/P16A02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2153155837598037</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2982706014211389</v>
+        <v>0.298270601421139</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1828124277514876</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09893067791150326</v>
+        <v>0.09922424626093596</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.124494190826764</v>
+        <v>0.1298528798608365</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1679570823407031</v>
+        <v>0.1707615347555043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2494332457600135</v>
+        <v>0.2501533951463047</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1358801363335349</v>
+        <v>0.1389123142528841</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2008220820012467</v>
+        <v>0.2028456656868066</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.280672549952095</v>
+        <v>0.2773802630138024</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3888155052275442</v>
+        <v>0.3833357489045054</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1289553718241878</v>
+        <v>0.1277787035110962</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1782423432185316</v>
+        <v>0.1764044172909476</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2420030642813382</v>
+        <v>0.2384832770557099</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3318541271408773</v>
+        <v>0.3302237175571427</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1842154558614054</v>
+        <v>0.1819231746154212</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2174749604656594</v>
+        <v>0.2170711008236071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2719204084237378</v>
+        <v>0.2748305177879792</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3522321679574414</v>
+        <v>0.3543349556909655</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2291115833286281</v>
+        <v>0.2394590792959798</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.320331435093825</v>
+        <v>0.3148148295742171</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3891711738780418</v>
+        <v>0.3937326134479845</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4795806685076133</v>
+        <v>0.4803972491987519</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1911241290692745</v>
+        <v>0.1892335620100322</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2504015135054474</v>
+        <v>0.2487179848561379</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3183305467504242</v>
+        <v>0.3115596954424105</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.400575929457432</v>
+        <v>0.4001561214949945</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.299392447629918</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3999853151514087</v>
+        <v>0.3999853151514088</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1596711584845719</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06989841532275162</v>
+        <v>0.07142538941850078</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1749619113046146</v>
+        <v>0.1759255539727405</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1392435905237834</v>
+        <v>0.1389054935283365</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.192391727553115</v>
+        <v>0.1931693214598597</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1887771285013654</v>
+        <v>0.1870912890408823</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3017880669624539</v>
+        <v>0.29972934262872</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2603878271943623</v>
+        <v>0.2583166346266811</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3652714743785214</v>
+        <v>0.3671115052722971</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1358004624177538</v>
+        <v>0.1392748148213325</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2521491015546808</v>
+        <v>0.2525156792140211</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2107343907037959</v>
+        <v>0.2086458157140535</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.288104687556366</v>
+        <v>0.2895247928310063</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1264559226962773</v>
+        <v>0.1228151391638692</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2501331507732148</v>
+        <v>0.2523179027867927</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2031461340570378</v>
+        <v>0.2075553075454674</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2783614244540066</v>
+        <v>0.2770490794631585</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2625731368598934</v>
+        <v>0.2603537781598811</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3906140978850492</v>
+        <v>0.3866716807971922</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3420557496880632</v>
+        <v>0.343785152064297</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4412039790003348</v>
+        <v>0.4382628857530616</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.183445983446211</v>
+        <v>0.1830755421900791</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3094083786070551</v>
+        <v>0.307950542856629</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2691431549229648</v>
+        <v>0.2667350399961333</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3442428934001251</v>
+        <v>0.3478956906429568</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1962644894502871</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2927291453283906</v>
+        <v>0.2927291453283907</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2869475611082383</v>
@@ -969,7 +969,7 @@
         <v>0.26504267086544</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3639589003048046</v>
+        <v>0.3639589003048045</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07750387993429735</v>
+        <v>0.08005585038493146</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1759823628015581</v>
+        <v>0.1805350058743725</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1569626366592687</v>
+        <v>0.1576670739196819</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2497984668446913</v>
+        <v>0.2477677403210437</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2387473502773531</v>
+        <v>0.2402931553228808</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2735555104395896</v>
+        <v>0.2713532732299948</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2778532952743567</v>
+        <v>0.2842290406147592</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.388049846657005</v>
+        <v>0.385867929553592</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1695050414924502</v>
+        <v>0.1683162044840441</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2384034131322583</v>
+        <v>0.2421220935706691</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2336562923100086</v>
+        <v>0.2310926501279462</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3320662721638533</v>
+        <v>0.3337101897118348</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1446598284182342</v>
+        <v>0.1432438402035138</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2720573228674553</v>
+        <v>0.2770668242442949</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2435996849260536</v>
+        <v>0.2376944100684958</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3439314251479405</v>
+        <v>0.3466347022510602</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3428843121531813</v>
+        <v>0.3382565142095537</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.37497489983084</v>
+        <v>0.376433749719739</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3849205052201067</v>
+        <v>0.3841527579840977</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4696925188256641</v>
+        <v>0.4710373285575165</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2314868215546452</v>
+        <v>0.2290614109461227</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3095167641718019</v>
+        <v>0.313660211446563</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3028388465931495</v>
+        <v>0.3005374109224764</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3966064770092221</v>
+        <v>0.3971291351763599</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.4585880070348083</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4346701001172149</v>
+        <v>0.4346701001172151</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1873043157405304</v>
@@ -1105,7 +1105,7 @@
         <v>0.3729741595512543</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3685813117752217</v>
+        <v>0.3685813117752216</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.114054309275097</v>
+        <v>0.1171886387182937</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1525141840408876</v>
+        <v>0.1532646485165265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2380407677202353</v>
+        <v>0.2389669295821021</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2342175584738176</v>
+        <v>0.2410691905126111</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1852577181510904</v>
+        <v>0.1857026236860061</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.353819540666018</v>
+        <v>0.3554934428469863</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4088480599915464</v>
+        <v>0.3995605741224022</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3919909482299238</v>
+        <v>0.3879984127269689</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1587996460124584</v>
+        <v>0.1613089714164841</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2688946320399421</v>
+        <v>0.2663100789224094</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3389396700362868</v>
+        <v>0.3379509328647374</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3340510651543337</v>
+        <v>0.3307066593333911</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1882675624828232</v>
+        <v>0.1923253634765872</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2399281546677727</v>
+        <v>0.2417577410178476</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3297254551947562</v>
+        <v>0.3343433810089708</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3583061349083708</v>
+        <v>0.3593827865218113</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2656664340600091</v>
+        <v>0.2682675364278671</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4546386287204285</v>
+        <v>0.4583857474865283</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5105776251907768</v>
+        <v>0.5110846507454507</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.478055567288818</v>
+        <v>0.4805439102478866</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2147676891548659</v>
+        <v>0.2183686466474504</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3365699972476071</v>
+        <v>0.3366797696989847</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4088617407610092</v>
+        <v>0.4076152700464396</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4096386912997067</v>
+        <v>0.4072645727755081</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2969636751276772</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3770374233489284</v>
+        <v>0.3770374233489282</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1977749855687805</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09962471707633772</v>
+        <v>0.09896069551773973</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1164771813612944</v>
+        <v>0.1214821834910865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09747682237196328</v>
+        <v>0.09696212150334682</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1743197395501014</v>
+        <v>0.1694657596542646</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1914469100343862</v>
+        <v>0.1882406342168793</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3798174791120393</v>
+        <v>0.3799580720868587</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2391781354578454</v>
+        <v>0.236138805351472</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3355974568766363</v>
+        <v>0.3372044103928357</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1634061797109265</v>
+        <v>0.1593356644862777</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2653945559200807</v>
+        <v>0.2649917031058043</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1823173716795099</v>
+        <v>0.1803374713814219</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2665773634397725</v>
+        <v>0.2672189352706276</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1968114537861351</v>
+        <v>0.1943057999310294</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2261230960708907</v>
+        <v>0.2272711655283028</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1930733330677233</v>
+        <v>0.1948045920637262</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2647365625412439</v>
+        <v>0.2632548616833802</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3212194152327006</v>
+        <v>0.3150176255761492</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5180381158439062</v>
+        <v>0.5126562415230137</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3659232202841006</v>
+        <v>0.3602434932920056</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4239574277274688</v>
+        <v>0.4258806630521597</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2386861925975147</v>
+        <v>0.2406559447334026</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3551031044838171</v>
+        <v>0.351198791669032</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2619407333432612</v>
+        <v>0.26232348850048</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3339361773835006</v>
+        <v>0.3335654754842444</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2540423857928765</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4290878694542878</v>
+        <v>0.4290878694542877</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1912173471980148</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09828495081619348</v>
+        <v>0.09870279697681421</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1444137986367839</v>
+        <v>0.1494990900229926</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.112077026151584</v>
+        <v>0.110921488824219</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2358836664807019</v>
+        <v>0.2404508877055715</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1978232137282826</v>
+        <v>0.1931239808201004</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3218695357698455</v>
+        <v>0.3163385331352033</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2033369503973389</v>
+        <v>0.2041474672085834</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3818757984315285</v>
+        <v>0.3799665633049445</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1580544696189314</v>
+        <v>0.1609173079540538</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2494461271388948</v>
+        <v>0.2520424619837785</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1711913884797585</v>
+        <v>0.169610727246648</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.32280444653791</v>
+        <v>0.3223433798406068</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1776555054850208</v>
+        <v>0.1801103163457981</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2409800972747182</v>
+        <v>0.2437179483996417</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2010111168174372</v>
+        <v>0.2058602537363122</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3368141113808847</v>
+        <v>0.3354664603323961</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3021098589815823</v>
+        <v>0.2969744266880238</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4332779164425757</v>
+        <v>0.4312096101135449</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3165133157674666</v>
+        <v>0.308583778234554</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4741279218260946</v>
+        <v>0.473611169789761</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2289839077948937</v>
+        <v>0.2301743564993134</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3318898213637899</v>
+        <v>0.3294351701611171</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2422930155701309</v>
+        <v>0.240290361740058</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3889791714753684</v>
+        <v>0.3902998480106095</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1142440796819841</v>
+        <v>0.1146688660642884</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1398933664898978</v>
+        <v>0.1374485694687899</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1245969946085507</v>
+        <v>0.1217520544750915</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2284506470523626</v>
+        <v>0.2275568522584425</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1791255917247747</v>
+        <v>0.1744126555625749</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.287892160771441</v>
+        <v>0.2871557753615185</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1884422478155564</v>
+        <v>0.1896399904044475</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3746768791052766</v>
+        <v>0.3747167475666122</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1541036241769299</v>
+        <v>0.1547763093782256</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2233723783343536</v>
+        <v>0.225031078485741</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1651878998941764</v>
+        <v>0.165910682447092</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.31517353339457</v>
+        <v>0.3143187452420483</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.172046940468795</v>
+        <v>0.1695063609762937</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.200621523812939</v>
+        <v>0.1984643420429021</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1809202083163594</v>
+        <v>0.1816950443196729</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3053928262623664</v>
+        <v>0.3050668015945714</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2471304670240482</v>
+        <v>0.2413989498227271</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3607431097184598</v>
+        <v>0.3586952140006273</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.253800305232643</v>
+        <v>0.2543717992697757</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4401442865233299</v>
+        <v>0.4387816619485017</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1980307649195651</v>
+        <v>0.1975342754475146</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2715468072768547</v>
+        <v>0.274653490961712</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2072595570343155</v>
+        <v>0.2091031856087955</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3696183939671625</v>
+        <v>0.363329845108921</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.3318822450397615</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3029350839871542</v>
+        <v>0.3029350839871543</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2256031253218709</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.152101716263593</v>
+        <v>0.1524112153539968</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1181187173522275</v>
+        <v>0.1156031065384176</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1733313885917762</v>
+        <v>0.1736183565581262</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1115485263300542</v>
+        <v>0.1097920840820624</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2375744430751912</v>
+        <v>0.2439401167733481</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2628717848909309</v>
+        <v>0.2613314102160413</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2973347838101955</v>
+        <v>0.2987980467807558</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2767220710906323</v>
+        <v>0.2772184773022982</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.204867767994051</v>
+        <v>0.2054280613927798</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1999236207903237</v>
+        <v>0.1999624476422978</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2472397171112855</v>
+        <v>0.2452993873209655</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2010784763918747</v>
+        <v>0.2021466648734332</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2092016284162815</v>
+        <v>0.2068659599177779</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1706816549634569</v>
+        <v>0.1679390168760702</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2303185073820922</v>
+        <v>0.2350403770236187</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1606151584717589</v>
+        <v>0.1550780627795441</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3029499693160432</v>
+        <v>0.3065296432510513</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.325261442643962</v>
+        <v>0.3237355792805182</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3676789314506737</v>
+        <v>0.363513587059833</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3291196926758857</v>
+        <v>0.3317580633807629</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2466821476033227</v>
+        <v>0.2471846730850331</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2426291760884896</v>
+        <v>0.2424720828055066</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2909369500097245</v>
+        <v>0.2895283984728478</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2378184163792295</v>
+        <v>0.2382901506096365</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.2511642594031444</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.3156942961967588</v>
+        <v>0.3156942961967587</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1278369250593171</v>
+        <v>0.1288035802922524</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1648501457766606</v>
+        <v>0.1648653392454351</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1751879008859406</v>
+        <v>0.1749721125682354</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2239752298481921</v>
+        <v>0.2225498395139767</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2230165773152083</v>
+        <v>0.2251172689902149</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3178010260793847</v>
+        <v>0.319747394178202</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2940562672165521</v>
+        <v>0.2960643062535912</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3761838882658177</v>
+        <v>0.3750614345574528</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1802478810361731</v>
+        <v>0.1809605769659962</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.24793757151704</v>
+        <v>0.2476765727189154</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.240590137689512</v>
+        <v>0.240941095783637</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3059187822817134</v>
+        <v>0.3058289338494142</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1518821427036345</v>
+        <v>0.1524366845382654</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1924461625630186</v>
+        <v>0.1920714338510955</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.20248983404212</v>
+        <v>0.2031682535939748</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2539354557456325</v>
+        <v>0.2551084414640231</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2539365865744282</v>
+        <v>0.2535422224601881</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3497987006425895</v>
+        <v>0.3530793757372668</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3263107521241219</v>
+        <v>0.3279445828192219</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4034701324145561</v>
+        <v>0.4038643515631061</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1993702765569464</v>
+        <v>0.2006551738634096</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2697226592244747</v>
+        <v>0.2687765903775313</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2615364876246478</v>
+        <v>0.2614320272823652</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.326050299827259</v>
+        <v>0.32684805892677</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27009</v>
+        <v>27089</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36377</v>
+        <v>37942</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>49339</v>
+        <v>50163</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>79531</v>
+        <v>79760</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>35443</v>
+        <v>36234</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>57030</v>
+        <v>57605</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>81031</v>
+        <v>80081</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>122889</v>
+        <v>121157</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>68843</v>
+        <v>68214</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>102699</v>
+        <v>101640</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>140958</v>
+        <v>138908</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>210696</v>
+        <v>209661</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>50293</v>
+        <v>49667</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>63545</v>
+        <v>63427</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>79880</v>
+        <v>80734</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>112307</v>
+        <v>112978</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>59761</v>
+        <v>62460</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>90968</v>
+        <v>89402</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>112355</v>
+        <v>113672</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>151577</v>
+        <v>151835</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>102031</v>
+        <v>101022</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>144275</v>
+        <v>143305</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>185416</v>
+        <v>181472</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>254328</v>
+        <v>254062</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>34465</v>
+        <v>35218</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>88448</v>
+        <v>88935</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>69980</v>
+        <v>69810</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>102092</v>
+        <v>102505</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>95134</v>
+        <v>94284</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>157754</v>
+        <v>156678</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>136205</v>
+        <v>135121</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>199368</v>
+        <v>200373</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>135396</v>
+        <v>138860</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>259274</v>
+        <v>259651</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>216142</v>
+        <v>213999</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>310132</v>
+        <v>311661</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>62352</v>
+        <v>60557</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>126449</v>
+        <v>127554</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>102096</v>
+        <v>104312</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>147712</v>
+        <v>147015</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>132323</v>
+        <v>131205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>204186</v>
+        <v>202125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>178924</v>
+        <v>179829</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>240813</v>
+        <v>239208</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>182900</v>
+        <v>182531</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>318152</v>
+        <v>316653</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>276049</v>
+        <v>273579</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>370562</v>
+        <v>374494</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>24712</v>
+        <v>25525</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>56863</v>
+        <v>58334</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>50003</v>
+        <v>50227</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>78935</v>
+        <v>78293</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>80079</v>
+        <v>80597</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>93288</v>
+        <v>92537</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>93445</v>
+        <v>95589</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>138294</v>
+        <v>137516</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>110900</v>
+        <v>110122</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>158332</v>
+        <v>160802</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>153015</v>
+        <v>151337</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>223273</v>
+        <v>224378</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46124</v>
+        <v>45673</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>87906</v>
+        <v>89525</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>77602</v>
+        <v>75721</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>108680</v>
+        <v>109534</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>115008</v>
+        <v>113455</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>127874</v>
+        <v>128371</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>129452</v>
+        <v>129194</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>167389</v>
+        <v>167869</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>151452</v>
+        <v>149865</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>205561</v>
+        <v>208313</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>198321</v>
+        <v>196814</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>266668</v>
+        <v>267020</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>40908</v>
+        <v>42032</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>57038</v>
+        <v>57318</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>88067</v>
+        <v>88409</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>87397</v>
+        <v>89954</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>68815</v>
+        <v>68980</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>137273</v>
+        <v>137922</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>158340</v>
+        <v>154743</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>165405</v>
+        <v>163720</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>115944</v>
+        <v>117776</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>204886</v>
+        <v>202917</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>256661</v>
+        <v>255912</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>265606</v>
+        <v>262947</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>67526</v>
+        <v>68982</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>89729</v>
+        <v>90413</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>121987</v>
+        <v>123695</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>133700</v>
+        <v>134102</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>98683</v>
+        <v>99650</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>176388</v>
+        <v>177842</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>197738</v>
+        <v>197934</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>201721</v>
+        <v>202771</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>156808</v>
+        <v>159437</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>256452</v>
+        <v>256535</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>309609</v>
+        <v>308665</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>325707</v>
+        <v>323819</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>20255</v>
+        <v>20120</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24765</v>
+        <v>25829</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20589</v>
+        <v>20480</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>35851</v>
+        <v>34853</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>39757</v>
+        <v>39092</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>83405</v>
+        <v>83435</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>52281</v>
+        <v>51617</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>76253</v>
+        <v>76618</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>67156</v>
+        <v>65483</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>114706</v>
+        <v>114532</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>78361</v>
+        <v>77510</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>115396</v>
+        <v>115673</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>40013</v>
+        <v>39504</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>48078</v>
+        <v>48322</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40781</v>
+        <v>41147</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>54447</v>
+        <v>54142</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>66707</v>
+        <v>65419</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>113757</v>
+        <v>112575</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>79986</v>
+        <v>78745</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>96329</v>
+        <v>96766</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>98094</v>
+        <v>98904</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>153479</v>
+        <v>151791</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>112584</v>
+        <v>112749</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>144554</v>
+        <v>144393</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>26617</v>
+        <v>26730</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>39567</v>
+        <v>40960</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>29490</v>
+        <v>29186</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>63855</v>
+        <v>65092</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>55023</v>
+        <v>53716</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>89847</v>
+        <v>88303</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>55534</v>
+        <v>55756</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>100720</v>
+        <v>100216</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>86765</v>
+        <v>88336</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>137974</v>
+        <v>139410</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>91799</v>
+        <v>90952</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>172525</v>
+        <v>172279</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>48111</v>
+        <v>48776</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>66024</v>
+        <v>66774</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>52891</v>
+        <v>54167</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>91178</v>
+        <v>90813</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>84030</v>
+        <v>82602</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>120945</v>
+        <v>120368</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>86445</v>
+        <v>84279</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>125051</v>
+        <v>124915</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>125702</v>
+        <v>126355</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>183575</v>
+        <v>182218</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>129927</v>
+        <v>128853</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>207893</v>
+        <v>208598</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>70263</v>
+        <v>70524</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>92720</v>
+        <v>91099</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>81805</v>
+        <v>79937</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>164413</v>
+        <v>163770</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>114321</v>
+        <v>111313</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>199755</v>
+        <v>199244</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>130269</v>
+        <v>131097</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>289272</v>
+        <v>289303</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>193130</v>
+        <v>193973</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>303036</v>
+        <v>305286</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>222649</v>
+        <v>223623</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>470158</v>
+        <v>468883</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>105814</v>
+        <v>104251</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>132970</v>
+        <v>131540</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>118785</v>
+        <v>119293</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>219787</v>
+        <v>219553</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>157723</v>
+        <v>154065</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>250303</v>
+        <v>248882</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>175451</v>
+        <v>175846</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>339816</v>
+        <v>338764</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>248181</v>
+        <v>247559</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>368392</v>
+        <v>372606</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>279355</v>
+        <v>281840</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>551376</v>
+        <v>541995</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>112978</v>
+        <v>113208</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>91775</v>
+        <v>89820</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>134953</v>
+        <v>135176</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>89024</v>
+        <v>87622</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>186142</v>
+        <v>191130</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>216265</v>
+        <v>214998</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>245648</v>
+        <v>246857</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>229681</v>
+        <v>230093</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>312687</v>
+        <v>313542</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>319813</v>
+        <v>319875</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>396758</v>
+        <v>393644</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>327371</v>
+        <v>329111</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>155390</v>
+        <v>153655</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>132615</v>
+        <v>130484</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>179322</v>
+        <v>182998</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>128182</v>
+        <v>123763</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>237365</v>
+        <v>240169</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>267594</v>
+        <v>266338</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>303764</v>
+        <v>300323</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>273171</v>
+        <v>275361</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>376508</v>
+        <v>377275</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>388128</v>
+        <v>387877</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>466881</v>
+        <v>464621</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>387187</v>
+        <v>387955</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>418733</v>
+        <v>421899</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>563982</v>
+        <v>564034</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>594649</v>
+        <v>593917</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>791251</v>
+        <v>786216</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>753617</v>
+        <v>760716</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1128510</v>
+        <v>1135421</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1042295</v>
+        <v>1049412</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1404385</v>
+        <v>1400195</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1199500</v>
+        <v>1204242</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1728664</v>
+        <v>1726844</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1669429</v>
+        <v>1671864</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>2222807</v>
+        <v>2222154</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>497494</v>
+        <v>499310</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>658393</v>
+        <v>657111</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>687321</v>
+        <v>689624</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>897094</v>
+        <v>901237</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>858102</v>
+        <v>856769</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1242133</v>
+        <v>1253783</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1156622</v>
+        <v>1162413</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1506251</v>
+        <v>1507723</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1326754</v>
+        <v>1335304</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1880553</v>
+        <v>1873957</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1814773</v>
+        <v>1814049</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>2369082</v>
+        <v>2374879</v>
       </c>
     </row>
     <row r="40">
